--- a/Code/Results/Cases/Case_5_223/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_223/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.68490467922241</v>
+        <v>12.72856851286642</v>
       </c>
       <c r="C2">
-        <v>16.82789644341923</v>
+        <v>9.916638121763459</v>
       </c>
       <c r="D2">
-        <v>3.31596904459588</v>
+        <v>3.505671535895402</v>
       </c>
       <c r="E2">
-        <v>30.1732684240585</v>
+        <v>16.59418520955057</v>
       </c>
       <c r="F2">
-        <v>19.03831062469503</v>
+        <v>20.07054344953894</v>
       </c>
       <c r="I2">
-        <v>10.33355951384475</v>
+        <v>16.4614748518014</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.86830601635967</v>
+        <v>15.59264994587608</v>
       </c>
       <c r="O2">
-        <v>14.26263652720616</v>
+        <v>17.64544065876387</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.27422543416465</v>
+        <v>12.05561713470845</v>
       </c>
       <c r="C3">
-        <v>15.77485428238402</v>
+        <v>9.359310192563211</v>
       </c>
       <c r="D3">
-        <v>3.209675457907861</v>
+        <v>3.468360177280706</v>
       </c>
       <c r="E3">
-        <v>27.97073073048419</v>
+        <v>15.64598135373817</v>
       </c>
       <c r="F3">
-        <v>18.10515669026784</v>
+        <v>19.95179175234761</v>
       </c>
       <c r="I3">
-        <v>10.36910377761069</v>
+        <v>16.55071082291001</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.9727637568388</v>
+        <v>15.63248803818554</v>
       </c>
       <c r="O3">
-        <v>13.75077338084301</v>
+        <v>17.63198918109224</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.35860893123557</v>
+        <v>11.62337329251245</v>
       </c>
       <c r="C4">
-        <v>15.09349190171672</v>
+        <v>8.997907736710186</v>
       </c>
       <c r="D4">
-        <v>3.142158782933149</v>
+        <v>3.444993659384588</v>
       </c>
       <c r="E4">
-        <v>26.55528310492812</v>
+        <v>15.03844741167595</v>
       </c>
       <c r="F4">
-        <v>17.53151930407716</v>
+        <v>19.88636340653288</v>
       </c>
       <c r="I4">
-        <v>10.40773670926406</v>
+        <v>16.61033915098415</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.04052980369258</v>
+        <v>15.65871563750926</v>
       </c>
       <c r="O4">
-        <v>13.44645795195766</v>
+        <v>17.62987676238334</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.9730045207493</v>
+        <v>11.44261975362477</v>
       </c>
       <c r="C5">
-        <v>14.80708001881042</v>
+        <v>8.845862054095594</v>
       </c>
       <c r="D5">
-        <v>3.11410662901599</v>
+        <v>3.435361996828866</v>
       </c>
       <c r="E5">
-        <v>25.96225996218772</v>
+        <v>14.78476936934786</v>
       </c>
       <c r="F5">
-        <v>17.29789995167966</v>
+        <v>19.86160635224642</v>
       </c>
       <c r="I5">
-        <v>10.4274340710444</v>
+        <v>16.63584863546339</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.0690412521002</v>
+        <v>15.66984858985222</v>
       </c>
       <c r="O5">
-        <v>13.32506109221755</v>
+        <v>17.63055894528079</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.90822010470318</v>
+        <v>11.41233319752832</v>
       </c>
       <c r="C6">
-        <v>14.75899329136884</v>
+        <v>8.820328754983253</v>
       </c>
       <c r="D6">
-        <v>3.109416927976503</v>
+        <v>3.433756204080175</v>
       </c>
       <c r="E6">
-        <v>25.86279953845581</v>
+        <v>14.74228657337714</v>
       </c>
       <c r="F6">
-        <v>17.25912628690713</v>
+        <v>19.85761115384798</v>
       </c>
       <c r="I6">
-        <v>10.43093576028916</v>
+        <v>16.64015740362417</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.07382924449588</v>
+        <v>15.67172410556527</v>
       </c>
       <c r="O6">
-        <v>13.30506425342339</v>
+        <v>17.63076530716177</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.35345913351166</v>
+        <v>11.62095399396892</v>
       </c>
       <c r="C7">
-        <v>15.08966467400142</v>
+        <v>8.99587642857845</v>
       </c>
       <c r="D7">
-        <v>3.141782603696968</v>
+        <v>3.444864200138147</v>
       </c>
       <c r="E7">
-        <v>26.54735150096103</v>
+        <v>15.03505053970443</v>
       </c>
       <c r="F7">
-        <v>17.52836760714083</v>
+        <v>19.88602178111449</v>
       </c>
       <c r="I7">
-        <v>10.40798670085039</v>
+        <v>16.61067828750961</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.04091071041776</v>
+        <v>15.65886397771386</v>
       </c>
       <c r="O7">
-        <v>13.44481002501941</v>
+        <v>17.62987971969188</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.208733857266</v>
+        <v>12.50058614978716</v>
       </c>
       <c r="C8">
-        <v>16.47202052902924</v>
+        <v>9.728486622238446</v>
       </c>
       <c r="D8">
-        <v>3.279802176398972</v>
+        <v>3.49290464630142</v>
       </c>
       <c r="E8">
-        <v>29.42670463064567</v>
+        <v>16.27264693760583</v>
       </c>
       <c r="F8">
-        <v>18.7168724336053</v>
+        <v>20.02805929256505</v>
       </c>
       <c r="I8">
-        <v>10.34216120876034</v>
+        <v>16.4912359439123</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.90355967681371</v>
+        <v>15.60601982957008</v>
       </c>
       <c r="O8">
-        <v>14.0841400025566</v>
+        <v>17.63952567459267</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.45734209533802</v>
+        <v>14.06805789349014</v>
       </c>
       <c r="C9">
-        <v>18.90788715774849</v>
+        <v>11.01091885283069</v>
       </c>
       <c r="D9">
-        <v>3.531513109393252</v>
+        <v>3.583255378082351</v>
       </c>
       <c r="E9">
-        <v>34.58997998215349</v>
+        <v>18.60726830698778</v>
       </c>
       <c r="F9">
-        <v>21.03102341785607</v>
+        <v>20.36478769375605</v>
       </c>
       <c r="I9">
-        <v>10.35878605367567</v>
+        <v>16.2956533549361</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.6638207128576</v>
+        <v>15.51638103031688</v>
       </c>
       <c r="O9">
-        <v>15.41261953162787</v>
+        <v>17.70726183208841</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.61134055611264</v>
+        <v>15.11697594969355</v>
       </c>
       <c r="C10">
-        <v>20.53269374618411</v>
+        <v>11.85733233898423</v>
       </c>
       <c r="D10">
-        <v>3.703641093216483</v>
+        <v>3.646988075677346</v>
       </c>
       <c r="E10">
-        <v>38.11559147605325</v>
+        <v>20.26377836507915</v>
       </c>
       <c r="F10">
-        <v>22.71018633852914</v>
+        <v>20.64580116530065</v>
       </c>
       <c r="I10">
-        <v>10.47668157981965</v>
+        <v>16.17587901396221</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.50700087739509</v>
+        <v>15.45901004345274</v>
       </c>
       <c r="O10">
-        <v>16.4294365311716</v>
+        <v>17.78675238888261</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.54195793851612</v>
+        <v>15.57085862463523</v>
       </c>
       <c r="C11">
-        <v>21.23698299321311</v>
+        <v>12.22137222447142</v>
       </c>
       <c r="D11">
-        <v>3.778950188160872</v>
+        <v>3.675346414604514</v>
       </c>
       <c r="E11">
-        <v>39.668062852047</v>
+        <v>20.97493147040734</v>
       </c>
       <c r="F11">
-        <v>23.5504291733557</v>
+        <v>20.78047949586021</v>
       </c>
       <c r="I11">
-        <v>10.5568015143122</v>
+        <v>16.12666288716441</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.4401774358926</v>
+        <v>15.43474496541171</v>
       </c>
       <c r="O11">
-        <v>16.90026846902371</v>
+        <v>17.82932700121259</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.88739261300512</v>
+        <v>15.73932325125847</v>
       </c>
       <c r="C12">
-        <v>21.49876191097623</v>
+        <v>12.35619419434914</v>
       </c>
       <c r="D12">
-        <v>3.807022291417916</v>
+        <v>3.685988920103151</v>
       </c>
       <c r="E12">
-        <v>40.24919935314741</v>
+        <v>21.23816649240475</v>
       </c>
       <c r="F12">
-        <v>23.87958003093838</v>
+        <v>20.83242000607743</v>
       </c>
       <c r="I12">
-        <v>10.59123080227275</v>
+        <v>16.10879035404277</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.41555318273898</v>
+        <v>15.42581942786339</v>
       </c>
       <c r="O12">
-        <v>17.12905916031919</v>
+        <v>17.84636498338837</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.81330515246658</v>
+        <v>15.70319395860103</v>
       </c>
       <c r="C13">
-        <v>21.44260035776707</v>
+        <v>12.32729287232737</v>
       </c>
       <c r="D13">
-        <v>3.800996514462905</v>
+        <v>3.68370122193023</v>
       </c>
       <c r="E13">
-        <v>40.12433050424178</v>
+        <v>21.18174324382001</v>
       </c>
       <c r="F13">
-        <v>23.80882824902741</v>
+        <v>20.8211925626998</v>
       </c>
       <c r="I13">
-        <v>10.58362958715441</v>
+        <v>16.11260541282912</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.42082566852202</v>
+        <v>15.42773000746672</v>
       </c>
       <c r="O13">
-        <v>17.07596047849345</v>
+        <v>17.8426549336916</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.57051606067262</v>
+        <v>15.58478698954652</v>
       </c>
       <c r="C14">
-        <v>21.25861773676134</v>
+        <v>12.23252493100999</v>
       </c>
       <c r="D14">
-        <v>3.781268713257598</v>
+        <v>3.676223935706929</v>
       </c>
       <c r="E14">
-        <v>39.71600468387015</v>
+        <v>20.9967092957434</v>
       </c>
       <c r="F14">
-        <v>23.5775704206959</v>
+        <v>20.78473407549773</v>
       </c>
       <c r="I14">
-        <v>10.55955049755426</v>
+        <v>16.12517714176581</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.43813775923077</v>
+        <v>15.43400538553325</v>
       </c>
       <c r="O14">
-        <v>16.91500976814638</v>
+        <v>17.8307104128204</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.42089656827962</v>
+        <v>15.51181343239581</v>
       </c>
       <c r="C15">
-        <v>21.14528526615604</v>
+        <v>12.1740816772202</v>
       </c>
       <c r="D15">
-        <v>3.769126382369969</v>
+        <v>3.671631210228449</v>
       </c>
       <c r="E15">
-        <v>39.46503433543842</v>
+        <v>20.88258205652712</v>
       </c>
       <c r="F15">
-        <v>23.43551573503688</v>
+        <v>20.76252338583522</v>
       </c>
       <c r="I15">
-        <v>10.5453421125072</v>
+        <v>16.13297745572845</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.44883149224936</v>
+        <v>15.43788348736108</v>
       </c>
       <c r="O15">
-        <v>16.83797061256389</v>
+        <v>17.82351310778245</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.54954081687285</v>
+        <v>15.08683951609671</v>
       </c>
       <c r="C16">
-        <v>20.48597301910033</v>
+        <v>11.8331177619222</v>
       </c>
       <c r="D16">
-        <v>3.698657876619559</v>
+        <v>3.645121601617081</v>
       </c>
       <c r="E16">
-        <v>38.01315291629864</v>
+        <v>20.2164525261526</v>
       </c>
       <c r="F16">
-        <v>22.66052171043367</v>
+        <v>20.63713368015328</v>
       </c>
       <c r="I16">
-        <v>10.47200276960046</v>
+        <v>16.17920202282549</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.51146138275055</v>
+        <v>15.46063267016713</v>
       </c>
       <c r="O16">
-        <v>16.39883089320393</v>
+        <v>17.78409859178338</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.00245458261879</v>
+        <v>14.82012054354453</v>
       </c>
       <c r="C17">
-        <v>20.07264151071353</v>
+        <v>11.618558893633</v>
       </c>
       <c r="D17">
-        <v>3.654649559264942</v>
+        <v>3.628692816015363</v>
       </c>
       <c r="E17">
-        <v>37.10974573135679</v>
+        <v>19.79696787864455</v>
       </c>
       <c r="F17">
-        <v>22.22462257978187</v>
+        <v>20.5619339222156</v>
       </c>
       <c r="I17">
-        <v>10.43399836294257</v>
+        <v>16.20891382595779</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.55106027438944</v>
+        <v>15.47505773878762</v>
       </c>
       <c r="O17">
-        <v>16.13153055668736</v>
+        <v>17.76155778596574</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.68314224818671</v>
+        <v>14.66452292684296</v>
       </c>
       <c r="C18">
-        <v>19.83161819744571</v>
+        <v>11.49317430154187</v>
       </c>
       <c r="D18">
-        <v>3.629056232715408</v>
+        <v>3.619184029171352</v>
       </c>
       <c r="E18">
-        <v>36.58525462468389</v>
+        <v>19.55169833973925</v>
       </c>
       <c r="F18">
-        <v>21.97336365546886</v>
+        <v>20.51932794794511</v>
       </c>
       <c r="I18">
-        <v>10.41461622012364</v>
+        <v>16.22649888492742</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.57425940450123</v>
+        <v>15.48352724155493</v>
       </c>
       <c r="O18">
-        <v>15.9785647750254</v>
+        <v>17.7491971119968</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.57422796426324</v>
+        <v>14.6114666413611</v>
       </c>
       <c r="C19">
-        <v>19.7494449752313</v>
+        <v>11.45038231440792</v>
       </c>
       <c r="D19">
-        <v>3.620343030495738</v>
+        <v>3.61595447362586</v>
       </c>
       <c r="E19">
-        <v>36.40681559797547</v>
+        <v>19.46796743330377</v>
       </c>
       <c r="F19">
-        <v>21.88820059362511</v>
+        <v>20.50501469291886</v>
       </c>
       <c r="I19">
-        <v>10.40847048402704</v>
+        <v>16.23253780072185</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.58218596656669</v>
+        <v>15.48642452690525</v>
       </c>
       <c r="O19">
-        <v>15.92690790450178</v>
+        <v>17.74511594113448</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.06117258748682</v>
+        <v>14.84874018020895</v>
       </c>
       <c r="C20">
-        <v>20.11698083433997</v>
+        <v>11.64160366668036</v>
       </c>
       <c r="D20">
-        <v>3.65936351088838</v>
+        <v>3.630447871135758</v>
       </c>
       <c r="E20">
-        <v>37.20641519557727</v>
+        <v>19.84203575524988</v>
       </c>
       <c r="F20">
-        <v>22.27108120851686</v>
+        <v>20.56987241612021</v>
       </c>
       <c r="I20">
-        <v>10.4377855759009</v>
+        <v>16.20569961049588</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.54680092128505</v>
+        <v>15.47350430739908</v>
       </c>
       <c r="O20">
-        <v>16.15990480942162</v>
+        <v>17.76389480188505</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.64201731197043</v>
+        <v>15.61965900133971</v>
       </c>
       <c r="C21">
-        <v>21.31279062677631</v>
+        <v>12.26044293820684</v>
       </c>
       <c r="D21">
-        <v>3.787075459296661</v>
+        <v>3.678422845421021</v>
       </c>
       <c r="E21">
-        <v>39.83611764344042</v>
+        <v>21.05122253528351</v>
       </c>
       <c r="F21">
-        <v>23.64558012405922</v>
+        <v>20.79541764235748</v>
       </c>
       <c r="I21">
-        <v>10.56650993037631</v>
+        <v>16.12146371682025</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.4330340505948</v>
+        <v>15.43215501774795</v>
       </c>
       <c r="O21">
-        <v>16.95345798420205</v>
+        <v>17.83419401010477</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.63462555047563</v>
+        <v>16.10359692593644</v>
       </c>
       <c r="C22">
-        <v>22.06569629439536</v>
+        <v>12.64721444363892</v>
       </c>
       <c r="D22">
-        <v>3.867938244248798</v>
+        <v>3.709214434573908</v>
       </c>
       <c r="E22">
-        <v>41.51578646219594</v>
+        <v>21.80617053841991</v>
       </c>
       <c r="F22">
-        <v>24.59794274901296</v>
+        <v>20.94828624192638</v>
       </c>
       <c r="I22">
-        <v>10.67459930837212</v>
+        <v>16.07087018670322</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.36266309054567</v>
+        <v>15.40666431795305</v>
       </c>
       <c r="O22">
-        <v>17.66840309057631</v>
+        <v>17.8854730544125</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.10852336752631</v>
+        <v>15.8471490004155</v>
       </c>
       <c r="C23">
-        <v>21.66644165779377</v>
+        <v>12.44240752934946</v>
       </c>
       <c r="D23">
-        <v>3.82502315101397</v>
+        <v>3.692833496619246</v>
       </c>
       <c r="E23">
-        <v>40.6226526646935</v>
+        <v>21.40646166072641</v>
       </c>
       <c r="F23">
-        <v>24.09126304514146</v>
+        <v>20.86621254688848</v>
       </c>
       <c r="I23">
-        <v>10.61462739079244</v>
+        <v>16.09746262925452</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.39984589571972</v>
+        <v>15.42012903379739</v>
       </c>
       <c r="O23">
-        <v>17.28794810470432</v>
+        <v>17.85761890148904</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.03464109052133</v>
+        <v>14.83580826854918</v>
       </c>
       <c r="C24">
-        <v>20.0969456028274</v>
+        <v>11.63119145264961</v>
       </c>
       <c r="D24">
-        <v>3.657233242800179</v>
+        <v>3.629654608588755</v>
       </c>
       <c r="E24">
-        <v>37.16272689490678</v>
+        <v>19.82167334911489</v>
       </c>
       <c r="F24">
-        <v>22.25007929866267</v>
+        <v>20.56628146544555</v>
       </c>
       <c r="I24">
-        <v>10.43606571385546</v>
+        <v>16.2071511898234</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.54872522782282</v>
+        <v>15.47420606437038</v>
       </c>
       <c r="O24">
-        <v>16.14707460041925</v>
+        <v>17.76283637263846</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.61976618959388</v>
+        <v>13.66165326652721</v>
       </c>
       <c r="C25">
-        <v>18.27812478285339</v>
+        <v>10.68071316630868</v>
       </c>
       <c r="D25">
-        <v>3.46558611718996</v>
+        <v>3.559257126963713</v>
       </c>
       <c r="E25">
-        <v>33.24230431681402</v>
+        <v>17.95941609507481</v>
       </c>
       <c r="F25">
-        <v>20.40808921483414</v>
+        <v>20.26764239801417</v>
       </c>
       <c r="I25">
-        <v>10.33694381236538</v>
+        <v>16.3443893052115</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.72538485987507</v>
+        <v>15.53913746813186</v>
       </c>
       <c r="O25">
-        <v>15.04578430558179</v>
+        <v>17.68370822244885</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_223/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_223/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.72856851286642</v>
+        <v>21.68490467922241</v>
       </c>
       <c r="C2">
-        <v>9.916638121763459</v>
+        <v>16.82789644341914</v>
       </c>
       <c r="D2">
-        <v>3.505671535895402</v>
+        <v>3.315969044595969</v>
       </c>
       <c r="E2">
-        <v>16.59418520955057</v>
+        <v>30.17326842405842</v>
       </c>
       <c r="F2">
-        <v>20.07054344953894</v>
+        <v>19.03831062469503</v>
       </c>
       <c r="I2">
-        <v>16.4614748518014</v>
+        <v>10.33355951384474</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.59264994587608</v>
+        <v>10.8683060163596</v>
       </c>
       <c r="O2">
-        <v>17.64544065876387</v>
+        <v>14.26263652720617</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.05561713470845</v>
+        <v>20.27422543416462</v>
       </c>
       <c r="C3">
-        <v>9.359310192563211</v>
+        <v>15.77485428238404</v>
       </c>
       <c r="D3">
-        <v>3.468360177280706</v>
+        <v>3.209675457907975</v>
       </c>
       <c r="E3">
-        <v>15.64598135373817</v>
+        <v>27.97073073048422</v>
       </c>
       <c r="F3">
-        <v>19.95179175234761</v>
+        <v>18.10515669026783</v>
       </c>
       <c r="I3">
-        <v>16.55071082291001</v>
+        <v>10.36910377761069</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.63248803818554</v>
+        <v>10.97276375683877</v>
       </c>
       <c r="O3">
-        <v>17.63198918109224</v>
+        <v>13.75077338084301</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.62337329251245</v>
+        <v>19.35860893123561</v>
       </c>
       <c r="C4">
-        <v>8.997907736710186</v>
+        <v>15.09349190171677</v>
       </c>
       <c r="D4">
-        <v>3.444993659384588</v>
+        <v>3.14215878293316</v>
       </c>
       <c r="E4">
-        <v>15.03844741167595</v>
+        <v>26.55528310492817</v>
       </c>
       <c r="F4">
-        <v>19.88636340653288</v>
+        <v>17.53151930407708</v>
       </c>
       <c r="I4">
-        <v>16.61033915098415</v>
+        <v>10.40773670926397</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.65871563750926</v>
+        <v>11.04052980369251</v>
       </c>
       <c r="O4">
-        <v>17.62987676238334</v>
+        <v>13.44645795195759</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.44261975362477</v>
+        <v>18.97300452074931</v>
       </c>
       <c r="C5">
-        <v>8.845862054095594</v>
+        <v>14.8070800188105</v>
       </c>
       <c r="D5">
-        <v>3.435361996828866</v>
+        <v>3.114106629016101</v>
       </c>
       <c r="E5">
-        <v>14.78476936934786</v>
+        <v>25.96225996218771</v>
       </c>
       <c r="F5">
-        <v>19.86160635224642</v>
+        <v>17.29789995167964</v>
       </c>
       <c r="I5">
-        <v>16.63584863546339</v>
+        <v>10.42743407104441</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.66984858985222</v>
+        <v>11.0690412521002</v>
       </c>
       <c r="O5">
-        <v>17.63055894528079</v>
+        <v>13.32506109221754</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.41233319752832</v>
+        <v>18.9082201047032</v>
       </c>
       <c r="C6">
-        <v>8.820328754983253</v>
+        <v>14.75899329136877</v>
       </c>
       <c r="D6">
-        <v>3.433756204080175</v>
+        <v>3.109416927976654</v>
       </c>
       <c r="E6">
-        <v>14.74228657337714</v>
+        <v>25.86279953845586</v>
       </c>
       <c r="F6">
-        <v>19.85761115384798</v>
+        <v>17.25912628690709</v>
       </c>
       <c r="I6">
-        <v>16.64015740362417</v>
+        <v>10.4309357602891</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.67172410556527</v>
+        <v>11.07382924449584</v>
       </c>
       <c r="O6">
-        <v>17.63076530716177</v>
+        <v>13.30506425342338</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.62095399396892</v>
+        <v>19.35345913351166</v>
       </c>
       <c r="C7">
-        <v>8.99587642857845</v>
+        <v>15.0896646740014</v>
       </c>
       <c r="D7">
-        <v>3.444864200138147</v>
+        <v>3.141782603696874</v>
       </c>
       <c r="E7">
-        <v>15.03505053970443</v>
+        <v>26.54735150096108</v>
       </c>
       <c r="F7">
-        <v>19.88602178111449</v>
+        <v>17.5283676071408</v>
       </c>
       <c r="I7">
-        <v>16.61067828750961</v>
+        <v>10.40798670085033</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.65886397771386</v>
+        <v>11.04091071041774</v>
       </c>
       <c r="O7">
-        <v>17.62987971969188</v>
+        <v>13.44481002501937</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.50058614978716</v>
+        <v>21.20873385726602</v>
       </c>
       <c r="C8">
-        <v>9.728486622238446</v>
+        <v>16.47202052902923</v>
       </c>
       <c r="D8">
-        <v>3.49290464630142</v>
+        <v>3.279802176399063</v>
       </c>
       <c r="E8">
-        <v>16.27264693760583</v>
+        <v>29.42670463064565</v>
       </c>
       <c r="F8">
-        <v>20.02805929256505</v>
+        <v>18.71687243360524</v>
       </c>
       <c r="I8">
-        <v>16.4912359439123</v>
+        <v>10.34216120876029</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.60601982957008</v>
+        <v>10.90355967681371</v>
       </c>
       <c r="O8">
-        <v>17.63952567459267</v>
+        <v>14.08414000255657</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.06805789349014</v>
+        <v>24.45734209533802</v>
       </c>
       <c r="C9">
-        <v>11.01091885283069</v>
+        <v>18.90788715774851</v>
       </c>
       <c r="D9">
-        <v>3.583255378082351</v>
+        <v>3.531513109393166</v>
       </c>
       <c r="E9">
-        <v>18.60726830698778</v>
+        <v>34.58997998215354</v>
       </c>
       <c r="F9">
-        <v>20.36478769375605</v>
+        <v>21.0310234178561</v>
       </c>
       <c r="I9">
-        <v>16.2956533549361</v>
+        <v>10.35878605367567</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.51638103031688</v>
+        <v>10.66382071285757</v>
       </c>
       <c r="O9">
-        <v>17.70726183208841</v>
+        <v>15.41261953162788</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.11697594969355</v>
+        <v>26.61134055611265</v>
       </c>
       <c r="C10">
-        <v>11.85733233898423</v>
+        <v>20.53269374618408</v>
       </c>
       <c r="D10">
-        <v>3.646988075677346</v>
+        <v>3.703641093216531</v>
       </c>
       <c r="E10">
-        <v>20.26377836507915</v>
+        <v>38.11559147605329</v>
       </c>
       <c r="F10">
-        <v>20.64580116530065</v>
+        <v>22.71018633852914</v>
       </c>
       <c r="I10">
-        <v>16.17587901396221</v>
+        <v>10.47668157981958</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.45901004345274</v>
+        <v>10.50700087739498</v>
       </c>
       <c r="O10">
-        <v>17.78675238888261</v>
+        <v>16.42943653117157</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.57085862463523</v>
+        <v>27.54195793851618</v>
       </c>
       <c r="C11">
-        <v>12.22137222447142</v>
+        <v>21.23698299321294</v>
       </c>
       <c r="D11">
-        <v>3.675346414604514</v>
+        <v>3.778950188160772</v>
       </c>
       <c r="E11">
-        <v>20.97493147040734</v>
+        <v>39.66806285204699</v>
       </c>
       <c r="F11">
-        <v>20.78047949586021</v>
+        <v>23.55042917335573</v>
       </c>
       <c r="I11">
-        <v>16.12666288716441</v>
+        <v>10.55680151431223</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.43474496541171</v>
+        <v>10.44017743589261</v>
       </c>
       <c r="O11">
-        <v>17.82932700121259</v>
+        <v>16.90026846902376</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.73932325125847</v>
+        <v>27.88739261300507</v>
       </c>
       <c r="C12">
-        <v>12.35619419434914</v>
+        <v>21.49876191097624</v>
       </c>
       <c r="D12">
-        <v>3.685988920103151</v>
+        <v>3.807022291417956</v>
       </c>
       <c r="E12">
-        <v>21.23816649240475</v>
+        <v>40.24919935314738</v>
       </c>
       <c r="F12">
-        <v>20.83242000607743</v>
+        <v>23.87958003093835</v>
       </c>
       <c r="I12">
-        <v>16.10879035404277</v>
+        <v>10.59123080227279</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.42581942786339</v>
+        <v>10.41555318273898</v>
       </c>
       <c r="O12">
-        <v>17.84636498338837</v>
+        <v>17.12905916031917</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.70319395860103</v>
+        <v>27.81330515246658</v>
       </c>
       <c r="C13">
-        <v>12.32729287232737</v>
+        <v>21.44260035776702</v>
       </c>
       <c r="D13">
-        <v>3.68370122193023</v>
+        <v>3.800996514462893</v>
       </c>
       <c r="E13">
-        <v>21.18174324382001</v>
+        <v>40.12433050424185</v>
       </c>
       <c r="F13">
-        <v>20.8211925626998</v>
+        <v>23.80882824902744</v>
       </c>
       <c r="I13">
-        <v>16.11260541282912</v>
+        <v>10.58362958715447</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.42773000746672</v>
+        <v>10.42082566852207</v>
       </c>
       <c r="O13">
-        <v>17.8426549336916</v>
+        <v>17.07596047849348</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.58478698954652</v>
+        <v>27.57051606067269</v>
       </c>
       <c r="C14">
-        <v>12.23252493100999</v>
+        <v>21.25861773676144</v>
       </c>
       <c r="D14">
-        <v>3.676223935706929</v>
+        <v>3.781268713257614</v>
       </c>
       <c r="E14">
-        <v>20.9967092957434</v>
+        <v>39.71600468387012</v>
       </c>
       <c r="F14">
-        <v>20.78473407549773</v>
+        <v>23.57757042069596</v>
       </c>
       <c r="I14">
-        <v>16.12517714176581</v>
+        <v>10.55955049755427</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.43400538553325</v>
+        <v>10.43813775923079</v>
       </c>
       <c r="O14">
-        <v>17.8307104128204</v>
+        <v>16.9150097681464</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.51181343239581</v>
+        <v>27.42089656827955</v>
       </c>
       <c r="C15">
-        <v>12.1740816772202</v>
+        <v>21.14528526615614</v>
       </c>
       <c r="D15">
-        <v>3.671631210228449</v>
+        <v>3.769126382370076</v>
       </c>
       <c r="E15">
-        <v>20.88258205652712</v>
+        <v>39.46503433543846</v>
       </c>
       <c r="F15">
-        <v>20.76252338583522</v>
+        <v>23.43551573503689</v>
       </c>
       <c r="I15">
-        <v>16.13297745572845</v>
+        <v>10.54534211250724</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.43788348736108</v>
+        <v>10.44883149224936</v>
       </c>
       <c r="O15">
-        <v>17.82351310778245</v>
+        <v>16.83797061256389</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.08683951609671</v>
+        <v>26.5495408168729</v>
       </c>
       <c r="C16">
-        <v>11.8331177619222</v>
+        <v>20.48597301910049</v>
       </c>
       <c r="D16">
-        <v>3.645121601617081</v>
+        <v>3.698657876619476</v>
       </c>
       <c r="E16">
-        <v>20.2164525261526</v>
+        <v>38.01315291629865</v>
       </c>
       <c r="F16">
-        <v>20.63713368015328</v>
+        <v>22.66052171043365</v>
       </c>
       <c r="I16">
-        <v>16.17920202282549</v>
+        <v>10.47200276960044</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.46063267016713</v>
+        <v>10.51146138275055</v>
       </c>
       <c r="O16">
-        <v>17.78409859178338</v>
+        <v>16.3988308932039</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.82012054354453</v>
+        <v>26.00245458261877</v>
       </c>
       <c r="C17">
-        <v>11.618558893633</v>
+        <v>20.07264151071343</v>
       </c>
       <c r="D17">
-        <v>3.628692816015363</v>
+        <v>3.654649559264912</v>
       </c>
       <c r="E17">
-        <v>19.79696787864455</v>
+        <v>37.10974573135677</v>
       </c>
       <c r="F17">
-        <v>20.5619339222156</v>
+        <v>22.22462257978188</v>
       </c>
       <c r="I17">
-        <v>16.20891382595779</v>
+        <v>10.43399836294265</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.47505773878762</v>
+        <v>10.55106027438954</v>
       </c>
       <c r="O17">
-        <v>17.76155778596574</v>
+        <v>16.13153055668737</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.66452292684296</v>
+        <v>25.68314224818655</v>
       </c>
       <c r="C18">
-        <v>11.49317430154187</v>
+        <v>19.83161819744573</v>
       </c>
       <c r="D18">
-        <v>3.619184029171352</v>
+        <v>3.62905623271543</v>
       </c>
       <c r="E18">
-        <v>19.55169833973925</v>
+        <v>36.5852546246837</v>
       </c>
       <c r="F18">
-        <v>20.51932794794511</v>
+        <v>21.97336365546892</v>
       </c>
       <c r="I18">
-        <v>16.22649888492742</v>
+        <v>10.41461622012386</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.48352724155493</v>
+        <v>10.57425940450131</v>
       </c>
       <c r="O18">
-        <v>17.7491971119968</v>
+        <v>15.97856477502549</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.6114666413611</v>
+        <v>25.57422796426327</v>
       </c>
       <c r="C19">
-        <v>11.45038231440792</v>
+        <v>19.74944497523122</v>
       </c>
       <c r="D19">
-        <v>3.61595447362586</v>
+        <v>3.620343030495639</v>
       </c>
       <c r="E19">
-        <v>19.46796743330377</v>
+        <v>36.40681559797546</v>
       </c>
       <c r="F19">
-        <v>20.50501469291886</v>
+        <v>21.88820059362516</v>
       </c>
       <c r="I19">
-        <v>16.23253780072185</v>
+        <v>10.4084704840271</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.48642452690525</v>
+        <v>10.58218596656668</v>
       </c>
       <c r="O19">
-        <v>17.74511594113448</v>
+        <v>15.92690790450182</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.84874018020895</v>
+        <v>26.06117258748687</v>
       </c>
       <c r="C20">
-        <v>11.64160366668036</v>
+        <v>20.11698083434012</v>
       </c>
       <c r="D20">
-        <v>3.630447871135758</v>
+        <v>3.65936351088829</v>
       </c>
       <c r="E20">
-        <v>19.84203575524988</v>
+        <v>37.20641519557724</v>
       </c>
       <c r="F20">
-        <v>20.56987241612021</v>
+        <v>22.27108120851685</v>
       </c>
       <c r="I20">
-        <v>16.20569961049588</v>
+        <v>10.43778557590079</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.47350430739908</v>
+        <v>10.54680092128499</v>
       </c>
       <c r="O20">
-        <v>17.76389480188505</v>
+        <v>16.15990480942159</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.61965900133971</v>
+        <v>27.64201731197055</v>
       </c>
       <c r="C21">
-        <v>12.26044293820684</v>
+        <v>21.31279062677625</v>
       </c>
       <c r="D21">
-        <v>3.678422845421021</v>
+        <v>3.787075459296736</v>
       </c>
       <c r="E21">
-        <v>21.05122253528351</v>
+        <v>39.83611764344052</v>
       </c>
       <c r="F21">
-        <v>20.79541764235748</v>
+        <v>23.64558012405933</v>
       </c>
       <c r="I21">
-        <v>16.12146371682025</v>
+        <v>10.56650993037626</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.43215501774795</v>
+        <v>10.43303405059475</v>
       </c>
       <c r="O21">
-        <v>17.83419401010477</v>
+        <v>16.95345798420214</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.10359692593644</v>
+        <v>28.63462555047555</v>
       </c>
       <c r="C22">
-        <v>12.64721444363892</v>
+        <v>22.06569629439536</v>
       </c>
       <c r="D22">
-        <v>3.709214434573908</v>
+        <v>3.867938244248815</v>
       </c>
       <c r="E22">
-        <v>21.80617053841991</v>
+        <v>41.51578646219583</v>
       </c>
       <c r="F22">
-        <v>20.94828624192638</v>
+        <v>24.59794274901294</v>
       </c>
       <c r="I22">
-        <v>16.07087018670322</v>
+        <v>10.67459930837226</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.40666431795305</v>
+        <v>10.36266309054574</v>
       </c>
       <c r="O22">
-        <v>17.8854730544125</v>
+        <v>17.66840309057629</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.8471490004155</v>
+        <v>28.10852336752631</v>
       </c>
       <c r="C23">
-        <v>12.44240752934946</v>
+        <v>21.66644165779387</v>
       </c>
       <c r="D23">
-        <v>3.692833496619246</v>
+        <v>3.825023151013988</v>
       </c>
       <c r="E23">
-        <v>21.40646166072641</v>
+        <v>40.62265266469353</v>
       </c>
       <c r="F23">
-        <v>20.86621254688848</v>
+        <v>24.09126304514151</v>
       </c>
       <c r="I23">
-        <v>16.09746262925452</v>
+        <v>10.61462739079247</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.42012903379739</v>
+        <v>10.39984589571971</v>
       </c>
       <c r="O23">
-        <v>17.85761890148904</v>
+        <v>17.28794810470436</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.83580826854918</v>
+        <v>26.03464109052137</v>
       </c>
       <c r="C24">
-        <v>11.63119145264961</v>
+        <v>20.09694560282732</v>
       </c>
       <c r="D24">
-        <v>3.629654608588755</v>
+        <v>3.657233242800256</v>
       </c>
       <c r="E24">
-        <v>19.82167334911489</v>
+        <v>37.16272689490684</v>
       </c>
       <c r="F24">
-        <v>20.56628146544555</v>
+        <v>22.25007929866267</v>
       </c>
       <c r="I24">
-        <v>16.2071511898234</v>
+        <v>10.43606571385548</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.47420606437038</v>
+        <v>10.54872522782285</v>
       </c>
       <c r="O24">
-        <v>17.76283637263846</v>
+        <v>16.14707460041927</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.66165326652721</v>
+        <v>23.61976618959381</v>
       </c>
       <c r="C25">
-        <v>10.68071316630868</v>
+        <v>18.27812478285325</v>
       </c>
       <c r="D25">
-        <v>3.559257126963713</v>
+        <v>3.465586117190011</v>
       </c>
       <c r="E25">
-        <v>17.95941609507481</v>
+        <v>33.24230431681404</v>
       </c>
       <c r="F25">
-        <v>20.26764239801417</v>
+        <v>20.40808921483417</v>
       </c>
       <c r="I25">
-        <v>16.3443893052115</v>
+        <v>10.33694381236549</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.53913746813186</v>
+        <v>10.7253848598751</v>
       </c>
       <c r="O25">
-        <v>17.68370822244885</v>
+        <v>15.04578430558185</v>
       </c>
     </row>
   </sheetData>
